--- a/Daten/sunhours.xlsx
+++ b/Daten/sunhours.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elekt\Documents\R\LVS\Daten\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0345E-1CEF-4B2F-81FC-FD8B4E67CF27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -363,7 +369,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,15 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,19 +539,10 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,18 +551,31 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,14 +584,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,9 +632,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,9 +667,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,9 +719,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -867,17 +911,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D114"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -886,12 +933,12 @@
       <c r="C1" s="1">
         <v>0.68194444444444446</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>0.34930555555555554</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -900,12 +947,12 @@
       <c r="C2" s="2">
         <v>0.68263888888888891</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.34930555555555554</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -914,12 +961,12 @@
       <c r="C3" s="1">
         <v>0.68263888888888891</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>0.34930555555555554</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -928,12 +975,12 @@
       <c r="C4" s="2">
         <v>0.68333333333333324</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>0.34930555555555554</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -942,12 +989,12 @@
       <c r="C5" s="1">
         <v>0.68333333333333324</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -956,12 +1003,12 @@
       <c r="C6" s="2">
         <v>0.68402777777777779</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -970,12 +1017,12 @@
       <c r="C7" s="1">
         <v>0.68472222222222223</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -984,12 +1031,12 @@
       <c r="C8" s="2">
         <v>0.68541666666666667</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -998,12 +1045,12 @@
       <c r="C9" s="1">
         <v>0.68541666666666667</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>0.35138888888888892</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -1012,7 +1059,7 @@
       <c r="C10" s="2">
         <v>0.68611111111111101</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.35138888888888892</v>
       </c>
     </row>
@@ -1020,32 +1067,32 @@
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="9">
         <v>0.3347222222222222</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>0.68680555555555556</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <v>0.3520833333333333</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.3347222222222222</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.6875</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.3527777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -1054,12 +1101,12 @@
       <c r="C13" s="2">
         <v>0.68819444444444444</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.35347222222222219</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -1068,12 +1115,12 @@
       <c r="C14" s="2">
         <v>0.68888888888888899</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -1082,12 +1129,12 @@
       <c r="C15" s="2">
         <v>0.68958333333333333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.35486111111111113</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1096,12 +1143,12 @@
       <c r="C16" s="1">
         <v>0.69027777777777777</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>0.35555555555555557</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -1110,12 +1157,12 @@
       <c r="C17" s="2">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.35694444444444445</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1124,12 +1171,12 @@
       <c r="C18" s="1">
         <v>0.69166666666666676</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>0.3576388888888889</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -1138,12 +1185,12 @@
       <c r="C19" s="2">
         <v>0.69305555555555554</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.35902777777777778</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1152,12 +1199,12 @@
       <c r="C20" s="1">
         <v>0.69374999999999998</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>0.35972222222222222</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -1166,12 +1213,12 @@
       <c r="C21" s="2">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1180,12 +1227,12 @@
       <c r="C22" s="1">
         <v>0.69513888888888886</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>0.36180555555555555</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -1194,12 +1241,12 @@
       <c r="C23" s="2">
         <v>0.69652777777777775</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.36319444444444443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1208,12 +1255,12 @@
       <c r="C24" s="1">
         <v>0.6972222222222223</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -1222,12 +1269,12 @@
       <c r="C25" s="2">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.3659722222222222</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1236,12 +1283,12 @@
       <c r="C26" s="1">
         <v>0.69930555555555562</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>0.36736111111111108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -1250,12 +1297,12 @@
       <c r="C27" s="2">
         <v>0.70000000000000007</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.36874999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1264,12 +1311,12 @@
       <c r="C28" s="1">
         <v>0.7006944444444444</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>0.37013888888888885</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -1278,12 +1325,12 @@
       <c r="C29" s="2">
         <v>0.70208333333333339</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>0.37152777777777773</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1292,12 +1339,12 @@
       <c r="C30" s="1">
         <v>0.70277777777777783</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>0.37291666666666662</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -1306,12 +1353,12 @@
       <c r="C31" s="2">
         <v>0.70416666666666661</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>0.375</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1320,12 +1367,12 @@
       <c r="C32" s="1">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="6">
         <v>0.37638888888888888</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2">
@@ -1334,12 +1381,12 @@
       <c r="C33" s="2">
         <v>0.70624999999999993</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>0.37777777777777777</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1348,12 +1395,12 @@
       <c r="C34" s="1">
         <v>0.70694444444444438</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>0.37986111111111115</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2">
@@ -1362,12 +1409,12 @@
       <c r="C35" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>0.38125000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1376,12 +1423,12 @@
       <c r="C36" s="1">
         <v>0.7090277777777777</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="6">
         <v>0.3833333333333333</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2">
@@ -1390,12 +1437,12 @@
       <c r="C37" s="2">
         <v>0.7104166666666667</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>0.38472222222222219</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -1404,12 +1451,12 @@
       <c r="C38" s="1">
         <v>0.71111111111111114</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="6">
         <v>0.38680555555555557</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2">
@@ -1418,12 +1465,12 @@
       <c r="C39" s="2">
         <v>0.71250000000000002</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -1432,12 +1479,12 @@
       <c r="C40" s="1">
         <v>0.71319444444444446</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>0.39027777777777778</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
@@ -1446,7 +1493,7 @@
       <c r="C41" s="2">
         <v>0.71458333333333324</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>0.3923611111111111</v>
       </c>
     </row>
@@ -1454,32 +1501,32 @@
       <c r="A42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="9">
         <v>0.32083333333333336</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="9">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="10">
         <v>0.39444444444444443</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>0.32013888888888892</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>0.71666666666666667</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>0.39652777777777781</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2">
@@ -1488,12 +1535,12 @@
       <c r="C44" s="2">
         <v>0.71736111111111101</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>0.39861111111111108</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -1502,12 +1549,12 @@
       <c r="C45" s="1">
         <v>0.71875</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="6">
         <v>0.40069444444444446</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -1516,12 +1563,12 @@
       <c r="C46" s="2">
         <v>0.72013888888888899</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>0.40277777777777773</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -1530,12 +1577,12 @@
       <c r="C47" s="1">
         <v>0.72083333333333333</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="6">
         <v>0.40486111111111112</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -1544,12 +1591,12 @@
       <c r="C48" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="5">
         <v>0.4069444444444445</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -1558,12 +1605,12 @@
       <c r="C49" s="1">
         <v>0.72291666666666676</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <v>0.40902777777777777</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1572,12 +1619,12 @@
       <c r="C50" s="2">
         <v>0.72430555555555554</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="5">
         <v>0.41111111111111115</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -1586,12 +1633,12 @@
       <c r="C51" s="1">
         <v>0.72569444444444453</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="6">
         <v>0.41319444444444442</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -1600,12 +1647,12 @@
       <c r="C52" s="2">
         <v>0.72638888888888886</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="5">
         <v>0.4152777777777778</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -1614,12 +1661,12 @@
       <c r="C53" s="1">
         <v>0.72777777777777775</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="6">
         <v>0.41736111111111113</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -1628,12 +1675,12 @@
       <c r="C54" s="2">
         <v>0.7284722222222223</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="5">
         <v>0.41944444444444445</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -1642,12 +1689,12 @@
       <c r="C55" s="1">
         <v>0.72986111111111107</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="6">
         <v>0.42152777777777778</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -1656,12 +1703,12 @@
       <c r="C56" s="2">
         <v>0.73055555555555562</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="5">
         <v>0.4236111111111111</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -1670,12 +1717,12 @@
       <c r="C57" s="1">
         <v>0.7319444444444444</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="6">
         <v>0.42638888888888887</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -1684,12 +1731,12 @@
       <c r="C58" s="2">
         <v>0.73333333333333339</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="5">
         <v>0.4284722222222222</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -1698,12 +1745,12 @@
       <c r="C59" s="1">
         <v>0.73402777777777783</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="6">
         <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2">
@@ -1712,12 +1759,12 @@
       <c r="C60" s="2">
         <v>0.73541666666666661</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="5">
         <v>0.43263888888888885</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -1726,12 +1773,12 @@
       <c r="C61" s="1">
         <v>0.73611111111111116</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="6">
         <v>0.43541666666666662</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -1740,12 +1787,12 @@
       <c r="C62" s="2">
         <v>0.73749999999999993</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="5">
         <v>0.4375</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -1754,12 +1801,12 @@
       <c r="C63" s="1">
         <v>0.73819444444444438</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="6">
         <v>0.43958333333333338</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2">
@@ -1768,12 +1815,12 @@
       <c r="C64" s="2">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="5">
         <v>0.44236111111111115</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -1782,12 +1829,12 @@
       <c r="C65" s="1">
         <v>0.7402777777777777</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="6">
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2">
@@ -1796,12 +1843,12 @@
       <c r="C66" s="2">
         <v>0.7416666666666667</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="5">
         <v>0.4465277777777778</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -1810,12 +1857,12 @@
       <c r="C67" s="1">
         <v>0.74236111111111114</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="6">
         <v>0.44930555555555557</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2">
@@ -1824,12 +1871,12 @@
       <c r="C68" s="2">
         <v>0.74375000000000002</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="5">
         <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -1838,40 +1885,40 @@
       <c r="C69" s="1">
         <v>0.74513888888888891</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="6">
         <v>0.45347222222222222</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="7">
         <v>0.28958333333333336</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="7">
         <v>0.74583333333333324</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="8">
         <v>0.45624999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>0.28819444444444448</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>0.74722222222222223</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2">
@@ -1880,12 +1927,12 @@
       <c r="C72" s="2">
         <v>0.74791666666666667</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="5">
         <v>0.46111111111111108</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -1894,12 +1941,12 @@
       <c r="C73" s="1">
         <v>0.74930555555555556</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="6">
         <v>0.46319444444444446</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
@@ -1908,12 +1955,12 @@
       <c r="C74" s="2">
         <v>0.75</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="5">
         <v>0.46597222222222223</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -1922,12 +1969,12 @@
       <c r="C75" s="1">
         <v>0.75138888888888899</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="6">
         <v>0.4680555555555555</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2">
@@ -1936,12 +1983,12 @@
       <c r="C76" s="2">
         <v>0.75208333333333333</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="5">
         <v>0.47013888888888888</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -1950,12 +1997,12 @@
       <c r="C77" s="1">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="6">
         <v>0.47291666666666665</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
@@ -1964,12 +2011,12 @@
       <c r="C78" s="2">
         <v>0.75416666666666676</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="5">
         <v>0.47500000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -1978,12 +2025,12 @@
       <c r="C79" s="1">
         <v>0.75555555555555554</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="6">
         <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2">
@@ -1992,12 +2039,12 @@
       <c r="C80" s="2">
         <v>0.75624999999999998</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="5">
         <v>0.47986111111111113</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -2006,12 +2053,12 @@
       <c r="C81" s="1">
         <v>0.75694444444444453</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="6">
         <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2">
@@ -2020,12 +2067,12 @@
       <c r="C82" s="2">
         <v>0.7583333333333333</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="5">
         <v>0.48472222222222222</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -2034,12 +2081,12 @@
       <c r="C83" s="1">
         <v>0.75902777777777775</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="6">
         <v>0.48749999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
@@ -2048,12 +2095,12 @@
       <c r="C84" s="2">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="5">
         <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -2062,12 +2109,12 @@
       <c r="C85" s="1">
         <v>0.76111111111111107</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="6">
         <v>0.4916666666666667</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2">
@@ -2076,12 +2123,12 @@
       <c r="C86" s="2">
         <v>0.76250000000000007</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="5">
         <v>0.49444444444444446</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -2090,12 +2137,12 @@
       <c r="C87" s="1">
         <v>0.7631944444444444</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="6">
         <v>0.49652777777777773</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2">
@@ -2104,12 +2151,12 @@
       <c r="C88" s="2">
         <v>0.76458333333333339</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="5">
         <v>0.4993055555555555</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -2118,12 +2165,12 @@
       <c r="C89" s="1">
         <v>0.76527777777777783</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="6">
         <v>0.50138888888888888</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2">
@@ -2132,12 +2179,12 @@
       <c r="C90" s="2">
         <v>0.76666666666666661</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="5">
         <v>0.50416666666666665</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -2146,12 +2193,12 @@
       <c r="C91" s="1">
         <v>0.76736111111111116</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="6">
         <v>0.50624999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2">
@@ -2160,12 +2207,12 @@
       <c r="C92" s="2">
         <v>0.7680555555555556</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="5">
         <v>0.50902777777777775</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -2174,12 +2221,12 @@
       <c r="C93" s="1">
         <v>0.76944444444444438</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="6">
         <v>0.51111111111111118</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2">
@@ -2188,12 +2235,12 @@
       <c r="C94" s="2">
         <v>0.77013888888888893</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="5">
         <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -2202,12 +2249,12 @@
       <c r="C95" s="1">
         <v>0.7715277777777777</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="6">
         <v>0.51597222222222217</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2">
@@ -2216,12 +2263,12 @@
       <c r="C96" s="2">
         <v>0.77222222222222225</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="5">
         <v>0.51874999999999993</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -2230,12 +2277,12 @@
       <c r="C97" s="1">
         <v>0.77361111111111114</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="6">
         <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="2">
@@ -2244,12 +2291,12 @@
       <c r="C98" s="2">
         <v>0.77430555555555547</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="5">
         <v>0.5229166666666667</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -2258,12 +2305,12 @@
       <c r="C99" s="1">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="6">
         <v>0.52569444444444446</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="2">
@@ -2272,7 +2319,7 @@
       <c r="C100" s="2">
         <v>0.77638888888888891</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="5">
         <v>0.52777777777777779</v>
       </c>
     </row>
@@ -2280,32 +2327,32 @@
       <c r="A101" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="9">
         <v>0.28819444444444448</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="9">
         <v>0.81874999999999998</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="10">
         <v>0.53055555555555556</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>0.28680555555555554</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="3">
         <v>0.82013888888888886</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>0.53263888888888888</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="2">
@@ -2314,12 +2361,12 @@
       <c r="C103" s="2">
         <v>0.8208333333333333</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="5">
         <v>0.53541666666666665</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -2328,12 +2375,12 @@
       <c r="C104" s="1">
         <v>0.82152777777777775</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="6">
         <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="2">
@@ -2342,12 +2389,12 @@
       <c r="C105" s="2">
         <v>0.82291666666666663</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="5">
         <v>0.5395833333333333</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -2356,12 +2403,12 @@
       <c r="C106" s="1">
         <v>0.82361111111111107</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="6">
         <v>0.54236111111111118</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="2">
@@ -2370,12 +2417,12 @@
       <c r="C107" s="2">
         <v>0.82500000000000007</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="5">
         <v>0.5444444444444444</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
@@ -2384,12 +2431,12 @@
       <c r="C108" s="1">
         <v>0.8256944444444444</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="6">
         <v>0.54722222222222217</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="2">
@@ -2398,12 +2445,12 @@
       <c r="C109" s="2">
         <v>0.82708333333333339</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="5">
         <v>0.5493055555555556</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -2412,12 +2459,12 @@
       <c r="C110" s="1">
         <v>0.82777777777777783</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="6">
         <v>0.55138888888888882</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="2">
@@ -2426,12 +2473,12 @@
       <c r="C111" s="2">
         <v>0.82847222222222217</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="5">
         <v>0.5541666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
@@ -2440,12 +2487,12 @@
       <c r="C112" s="1">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="6">
         <v>0.55625000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="2">
@@ -2454,12 +2501,12 @@
       <c r="C113" s="2">
         <v>0.8305555555555556</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="5">
         <v>0.55833333333333335</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
@@ -2468,229 +2515,229 @@
       <c r="C114" s="1">
         <v>0.83194444444444438</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="6">
         <v>0.56111111111111112</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="7"/>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="9"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="7"/>
+      <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="8"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="9"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="7"/>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="9"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="7"/>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="9"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="7"/>
+      <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="8"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="9"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="7"/>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="8"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="9"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="7"/>
+      <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="8"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="9"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="7"/>
+      <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="8"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="9"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="12"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/21"/>
-    <hyperlink ref="A2" r:id="rId2" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/22"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/23"/>
-    <hyperlink ref="A4" r:id="rId4" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/24"/>
-    <hyperlink ref="A5" r:id="rId5" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/25"/>
-    <hyperlink ref="A6" r:id="rId6" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/26"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/27"/>
-    <hyperlink ref="A8" r:id="rId8" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/28"/>
-    <hyperlink ref="A9" r:id="rId9" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/29"/>
-    <hyperlink ref="A10" r:id="rId10" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/30"/>
-    <hyperlink ref="A11" r:id="rId11" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/31"/>
-    <hyperlink ref="A12" r:id="rId12" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/1"/>
-    <hyperlink ref="A13" r:id="rId13" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/2"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/3"/>
-    <hyperlink ref="A15" r:id="rId15" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/4"/>
-    <hyperlink ref="A16" r:id="rId16" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/5"/>
-    <hyperlink ref="A17" r:id="rId17" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/6"/>
-    <hyperlink ref="A18" r:id="rId18" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/7"/>
-    <hyperlink ref="A19" r:id="rId19" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/8"/>
-    <hyperlink ref="A20" r:id="rId20" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/9"/>
-    <hyperlink ref="A21" r:id="rId21" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/10"/>
-    <hyperlink ref="A22" r:id="rId22" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/11"/>
-    <hyperlink ref="A23" r:id="rId23" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/12"/>
-    <hyperlink ref="A24" r:id="rId24" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/13"/>
-    <hyperlink ref="A25" r:id="rId25" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/14"/>
-    <hyperlink ref="A26" r:id="rId26" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/15"/>
-    <hyperlink ref="A27" r:id="rId27" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/16"/>
-    <hyperlink ref="A28" r:id="rId28" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/17"/>
-    <hyperlink ref="A29" r:id="rId29" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/18"/>
-    <hyperlink ref="A30" r:id="rId30" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/19"/>
-    <hyperlink ref="A31" r:id="rId31" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/20"/>
-    <hyperlink ref="A32" r:id="rId32" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/21"/>
-    <hyperlink ref="A33" r:id="rId33" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/22"/>
-    <hyperlink ref="A34" r:id="rId34" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/23"/>
-    <hyperlink ref="A35" r:id="rId35" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/24"/>
-    <hyperlink ref="A36" r:id="rId36" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/25"/>
-    <hyperlink ref="A37" r:id="rId37" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/26"/>
-    <hyperlink ref="A38" r:id="rId38" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/27"/>
-    <hyperlink ref="A39" r:id="rId39" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/28"/>
-    <hyperlink ref="A40" r:id="rId40" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/29"/>
-    <hyperlink ref="A41" r:id="rId41" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/30"/>
-    <hyperlink ref="A42" r:id="rId42" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/31"/>
-    <hyperlink ref="A43" r:id="rId43" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/1"/>
-    <hyperlink ref="A44" r:id="rId44" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/2"/>
-    <hyperlink ref="A45" r:id="rId45" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/3"/>
-    <hyperlink ref="A46" r:id="rId46" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/4"/>
-    <hyperlink ref="A47" r:id="rId47" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/5"/>
-    <hyperlink ref="A48" r:id="rId48" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/6"/>
-    <hyperlink ref="A49" r:id="rId49" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/7"/>
-    <hyperlink ref="A50" r:id="rId50" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/8"/>
-    <hyperlink ref="A51" r:id="rId51" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/9"/>
-    <hyperlink ref="A52" r:id="rId52" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/10"/>
-    <hyperlink ref="A53" r:id="rId53" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/11"/>
-    <hyperlink ref="A54" r:id="rId54" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/12"/>
-    <hyperlink ref="A55" r:id="rId55" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/13"/>
-    <hyperlink ref="A56" r:id="rId56" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/14"/>
-    <hyperlink ref="A57" r:id="rId57" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/15"/>
-    <hyperlink ref="A58" r:id="rId58" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/16"/>
-    <hyperlink ref="A59" r:id="rId59" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/17"/>
-    <hyperlink ref="A60" r:id="rId60" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/18"/>
-    <hyperlink ref="A61" r:id="rId61" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/19"/>
-    <hyperlink ref="A62" r:id="rId62" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/20"/>
-    <hyperlink ref="A63" r:id="rId63" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/21"/>
-    <hyperlink ref="A64" r:id="rId64" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/22"/>
-    <hyperlink ref="A65" r:id="rId65" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/23"/>
-    <hyperlink ref="A66" r:id="rId66" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/24"/>
-    <hyperlink ref="A67" r:id="rId67" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/25"/>
-    <hyperlink ref="A68" r:id="rId68" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/26"/>
-    <hyperlink ref="A69" r:id="rId69" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/27"/>
-    <hyperlink ref="A70" r:id="rId70" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/28"/>
-    <hyperlink ref="A71" r:id="rId71" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/1"/>
-    <hyperlink ref="A72" r:id="rId72" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/2"/>
-    <hyperlink ref="A73" r:id="rId73" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/3"/>
-    <hyperlink ref="A74" r:id="rId74" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/4"/>
-    <hyperlink ref="A75" r:id="rId75" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/5"/>
-    <hyperlink ref="A76" r:id="rId76" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/6"/>
-    <hyperlink ref="A77" r:id="rId77" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/7"/>
-    <hyperlink ref="A78" r:id="rId78" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/8"/>
-    <hyperlink ref="A79" r:id="rId79" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/9"/>
-    <hyperlink ref="A80" r:id="rId80" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/10"/>
-    <hyperlink ref="A81" r:id="rId81" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/11"/>
-    <hyperlink ref="A82" r:id="rId82" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/12"/>
-    <hyperlink ref="A83" r:id="rId83" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/13"/>
-    <hyperlink ref="A84" r:id="rId84" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/14"/>
-    <hyperlink ref="A85" r:id="rId85" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/15"/>
-    <hyperlink ref="A86" r:id="rId86" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/16"/>
-    <hyperlink ref="A87" r:id="rId87" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/17"/>
-    <hyperlink ref="A88" r:id="rId88" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/18"/>
-    <hyperlink ref="A89" r:id="rId89" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/19"/>
-    <hyperlink ref="A90" r:id="rId90" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/20"/>
-    <hyperlink ref="A91" r:id="rId91" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/21"/>
-    <hyperlink ref="A92" r:id="rId92" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/22"/>
-    <hyperlink ref="A93" r:id="rId93" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/23"/>
-    <hyperlink ref="A94" r:id="rId94" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/24"/>
-    <hyperlink ref="A95" r:id="rId95" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/25"/>
-    <hyperlink ref="A96" r:id="rId96" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/26"/>
-    <hyperlink ref="A97" r:id="rId97" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/27"/>
-    <hyperlink ref="A98" r:id="rId98" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/28"/>
-    <hyperlink ref="A99" r:id="rId99" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/29"/>
-    <hyperlink ref="A100" r:id="rId100" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/30"/>
-    <hyperlink ref="A101" r:id="rId101" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/31"/>
-    <hyperlink ref="A102" r:id="rId102" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/1"/>
-    <hyperlink ref="A103" r:id="rId103" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/2"/>
-    <hyperlink ref="A104" r:id="rId104" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/3"/>
-    <hyperlink ref="A105" r:id="rId105" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/4"/>
-    <hyperlink ref="A106" r:id="rId106" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/5"/>
-    <hyperlink ref="A107" r:id="rId107" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/6"/>
-    <hyperlink ref="A108" r:id="rId108" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/7"/>
-    <hyperlink ref="A109" r:id="rId109" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/8"/>
-    <hyperlink ref="A110" r:id="rId110" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/9"/>
-    <hyperlink ref="A111" r:id="rId111" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/10"/>
-    <hyperlink ref="A112" r:id="rId112" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/11"/>
-    <hyperlink ref="A113" r:id="rId113" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/12"/>
-    <hyperlink ref="A114" r:id="rId114" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/13"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/21" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/22" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/23" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/24" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A5" r:id="rId5" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/25" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/26" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId7" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/27" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId8" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/28" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/29" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A10" r:id="rId10" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/30" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A11" r:id="rId11" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/31" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A12" r:id="rId12" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A13" r:id="rId13" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A14" r:id="rId14" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/3" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A15" r:id="rId15" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A16" r:id="rId16" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/5" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A17" r:id="rId17" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/6" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A18" r:id="rId18" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A19" r:id="rId19" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A20" r:id="rId20" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A21" r:id="rId21" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A22" r:id="rId22" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/11" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A23" r:id="rId23" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/12" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A24" r:id="rId24" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A25" r:id="rId25" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A26" r:id="rId26" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/15" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A27" r:id="rId27" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/16" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A28" r:id="rId28" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A29" r:id="rId29" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A30" r:id="rId30" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A31" r:id="rId31" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A32" r:id="rId32" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A33" r:id="rId33" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/22" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A34" r:id="rId34" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/23" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A35" r:id="rId35" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A36" r:id="rId36" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A37" r:id="rId37" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/26" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A38" r:id="rId38" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A39" r:id="rId39" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A40" r:id="rId40" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/29" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A41" r:id="rId41" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/30" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A42" r:id="rId42" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/31" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A43" r:id="rId43" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/1" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A44" r:id="rId44" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/2" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A45" r:id="rId45" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/3" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A46" r:id="rId46" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/4" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A47" r:id="rId47" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/5" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A48" r:id="rId48" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/6" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A49" r:id="rId49" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/7" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A50" r:id="rId50" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/8" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A51" r:id="rId51" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/9" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId52" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/10" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A53" r:id="rId53" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A54" r:id="rId54" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A55" r:id="rId55" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId56" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A57" r:id="rId57" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A58" r:id="rId58" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/16" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A59" r:id="rId59" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/17" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A60" r:id="rId60" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/18" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A61" r:id="rId61" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A62" r:id="rId62" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/20" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A63" r:id="rId63" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/21" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A64" r:id="rId64" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/22" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A65" r:id="rId65" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/23" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A66" r:id="rId66" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/24" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A67" r:id="rId67" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/25" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A68" r:id="rId68" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/26" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A69" r:id="rId69" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/27" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A70" r:id="rId70" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/28" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A71" r:id="rId71" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/1" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A72" r:id="rId72" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/2" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A73" r:id="rId73" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/3" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A74" r:id="rId74" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/4" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A75" r:id="rId75" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/5" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A76" r:id="rId76" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/6" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A77" r:id="rId77" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/7" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A78" r:id="rId78" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/8" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A79" r:id="rId79" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/9" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A80" r:id="rId80" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/10" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A81" r:id="rId81" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/11" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A82" r:id="rId82" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/12" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A83" r:id="rId83" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/13" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A84" r:id="rId84" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/14" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A85" r:id="rId85" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/15" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A86" r:id="rId86" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/16" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A87" r:id="rId87" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/17" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A88" r:id="rId88" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/18" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A89" r:id="rId89" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/19" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A90" r:id="rId90" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/20" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A91" r:id="rId91" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/21" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A92" r:id="rId92" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/22" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A93" r:id="rId93" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/23" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A94" r:id="rId94" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/24" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A95" r:id="rId95" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/25" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A96" r:id="rId96" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/26" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A97" r:id="rId97" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/27" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A98" r:id="rId98" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/28" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A99" r:id="rId99" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/29" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A100" r:id="rId100" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/30" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A101" r:id="rId101" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A102" r:id="rId102" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/1" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A103" r:id="rId103" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/2" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A104" r:id="rId104" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/3" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A105" r:id="rId105" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/4" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A106" r:id="rId106" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/5" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A107" r:id="rId107" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/6" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A108" r:id="rId108" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/7" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A109" r:id="rId109" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/8" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A110" r:id="rId110" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/9" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A111" r:id="rId111" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/10" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A112" r:id="rId112" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/11" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A113" r:id="rId113" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/12" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A114" r:id="rId114" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/13" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId115"/>
@@ -2698,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2710,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Daten/sunhours.xlsx
+++ b/Daten/sunhours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elekt\Documents\R\LVS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0345E-1CEF-4B2F-81FC-FD8B4E67CF27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9814FDEC-B0D4-45C2-8E42-151A7928FB20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,17 +426,6 @@
       <right/>
       <top style="medium">
         <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -525,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -533,46 +522,41 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -914,17 +898,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -937,8 +921,8 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -951,8 +935,8 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -965,8 +949,8 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -979,8 +963,8 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -993,8 +977,8 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -1007,8 +991,8 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1021,8 +1005,8 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -1035,8 +1019,8 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1049,8 +1033,8 @@
         <v>0.35138888888888892</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -1063,8 +1047,8 @@
         <v>0.35138888888888892</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="9">
@@ -1077,8 +1061,8 @@
         <v>0.3520833333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
@@ -1091,8 +1075,8 @@
         <v>0.3527777777777778</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -1105,8 +1089,8 @@
         <v>0.35347222222222219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -1119,8 +1103,8 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -1133,8 +1117,8 @@
         <v>0.35486111111111113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1147,8 +1131,8 @@
         <v>0.35555555555555557</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -1161,8 +1145,8 @@
         <v>0.35694444444444445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1175,8 +1159,8 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -1189,8 +1173,8 @@
         <v>0.35902777777777778</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1203,8 +1187,8 @@
         <v>0.35972222222222222</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -1217,8 +1201,8 @@
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1231,8 +1215,8 @@
         <v>0.36180555555555555</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -1245,8 +1229,8 @@
         <v>0.36319444444444443</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1259,8 +1243,8 @@
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -1273,8 +1257,8 @@
         <v>0.3659722222222222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1287,8 +1271,8 @@
         <v>0.36736111111111108</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -1301,8 +1285,8 @@
         <v>0.36874999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1315,8 +1299,8 @@
         <v>0.37013888888888885</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -1329,8 +1313,8 @@
         <v>0.37152777777777773</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1343,8 +1327,8 @@
         <v>0.37291666666666662</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -1357,8 +1341,8 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1371,8 +1355,8 @@
         <v>0.37638888888888888</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2">
@@ -1385,8 +1369,8 @@
         <v>0.37777777777777777</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1399,8 +1383,8 @@
         <v>0.37986111111111115</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2">
@@ -1413,8 +1397,8 @@
         <v>0.38125000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1427,8 +1411,8 @@
         <v>0.3833333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="2">
@@ -1441,8 +1425,8 @@
         <v>0.38472222222222219</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -1455,8 +1439,8 @@
         <v>0.38680555555555557</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="2">
@@ -1469,8 +1453,8 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -1483,8 +1467,8 @@
         <v>0.39027777777777778</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
@@ -1497,8 +1481,8 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="9">
@@ -1511,8 +1495,8 @@
         <v>0.39444444444444443</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3">
@@ -1525,8 +1509,8 @@
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="2">
@@ -1539,8 +1523,8 @@
         <v>0.39861111111111108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -1553,8 +1537,8 @@
         <v>0.40069444444444446</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="2">
@@ -1567,8 +1551,8 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -1581,8 +1565,8 @@
         <v>0.40486111111111112</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="2">
@@ -1595,8 +1579,8 @@
         <v>0.4069444444444445</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -1609,8 +1593,8 @@
         <v>0.40902777777777777</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
@@ -1623,8 +1607,8 @@
         <v>0.41111111111111115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -1637,8 +1621,8 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2">
@@ -1651,8 +1635,8 @@
         <v>0.4152777777777778</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -1665,8 +1649,8 @@
         <v>0.41736111111111113</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2">
@@ -1679,8 +1663,8 @@
         <v>0.41944444444444445</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -1693,8 +1677,8 @@
         <v>0.42152777777777778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2">
@@ -1707,8 +1691,8 @@
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -1721,8 +1705,8 @@
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2">
@@ -1735,8 +1719,8 @@
         <v>0.4284722222222222</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -1749,8 +1733,8 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2">
@@ -1763,8 +1747,8 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -1777,8 +1761,8 @@
         <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
@@ -1791,8 +1775,8 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -1805,8 +1789,8 @@
         <v>0.43958333333333338</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="2">
@@ -1819,8 +1803,8 @@
         <v>0.44236111111111115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -1833,8 +1817,8 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="2">
@@ -1847,8 +1831,8 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -1861,8 +1845,8 @@
         <v>0.44930555555555557</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="2">
@@ -1875,8 +1859,8 @@
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -1889,7 +1873,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>69</v>
       </c>
@@ -1903,8 +1887,8 @@
         <v>0.45624999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="3">
@@ -1917,8 +1901,8 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2">
@@ -1931,8 +1915,8 @@
         <v>0.46111111111111108</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -1945,8 +1929,8 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
@@ -1959,8 +1943,8 @@
         <v>0.46597222222222223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -1973,8 +1957,8 @@
         <v>0.4680555555555555</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="2">
@@ -1987,8 +1971,8 @@
         <v>0.47013888888888888</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -2001,8 +1985,8 @@
         <v>0.47291666666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
@@ -2015,8 +1999,8 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -2029,8 +2013,8 @@
         <v>0.4777777777777778</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2">
@@ -2043,8 +2027,8 @@
         <v>0.47986111111111113</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -2057,8 +2041,8 @@
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="2">
@@ -2071,8 +2055,8 @@
         <v>0.48472222222222222</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -2085,8 +2069,8 @@
         <v>0.48749999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
@@ -2099,8 +2083,8 @@
         <v>0.48958333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -2113,8 +2097,8 @@
         <v>0.4916666666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="2">
@@ -2127,8 +2111,8 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -2141,8 +2125,8 @@
         <v>0.49652777777777773</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="2">
@@ -2155,8 +2139,8 @@
         <v>0.4993055555555555</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -2169,8 +2153,8 @@
         <v>0.50138888888888888</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2">
@@ -2183,8 +2167,8 @@
         <v>0.50416666666666665</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -2197,8 +2181,8 @@
         <v>0.50624999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2">
@@ -2211,8 +2195,8 @@
         <v>0.50902777777777775</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -2225,8 +2209,8 @@
         <v>0.51111111111111118</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2">
@@ -2239,8 +2223,8 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -2253,8 +2237,8 @@
         <v>0.51597222222222217</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2">
@@ -2267,8 +2251,8 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -2281,8 +2265,8 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="2">
@@ -2295,8 +2279,8 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -2309,8 +2293,8 @@
         <v>0.52569444444444446</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="2">
@@ -2323,8 +2307,8 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="9">
@@ -2337,8 +2321,8 @@
         <v>0.53055555555555556</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="14" t="s">
+    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="3">
@@ -2351,8 +2335,8 @@
         <v>0.53263888888888888</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="2">
@@ -2365,8 +2349,8 @@
         <v>0.53541666666666665</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -2379,8 +2363,8 @@
         <v>0.53749999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="2">
@@ -2393,8 +2377,8 @@
         <v>0.5395833333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
+    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -2407,8 +2391,8 @@
         <v>0.54236111111111118</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="2">
@@ -2421,8 +2405,8 @@
         <v>0.5444444444444444</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="1">
@@ -2435,8 +2419,8 @@
         <v>0.54722222222222217</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="2">
@@ -2449,8 +2433,8 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
+    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -2463,8 +2447,8 @@
         <v>0.55138888888888882</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="12" t="s">
+    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="2">
@@ -2477,8 +2461,8 @@
         <v>0.5541666666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="1">
@@ -2491,8 +2475,8 @@
         <v>0.55625000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="2">
@@ -2505,8 +2489,8 @@
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="1">
@@ -2617,130 +2601,14 @@
       <c r="D150" s="6"/>
     </row>
     <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/21" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/22" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/23" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/24" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/25" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/26" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId7" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/27" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/28" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/29" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/30" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A11" r:id="rId11" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Dezember 2018" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2018/dezember/31" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A12" r:id="rId12" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A13" r:id="rId13" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/3" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A15" r:id="rId15" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/4" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/5" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/6" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/7" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A19" r:id="rId19" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A20" r:id="rId20" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/9" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A21" r:id="rId21" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/10" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A22" r:id="rId22" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/11" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A23" r:id="rId23" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/12" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A24" r:id="rId24" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/13" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A25" r:id="rId25" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/14" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A26" r:id="rId26" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/15" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A27" r:id="rId27" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/16" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A28" r:id="rId28" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/17" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A29" r:id="rId29" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/18" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A30" r:id="rId30" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/19" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A31" r:id="rId31" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A32" r:id="rId32" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A33" r:id="rId33" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/22" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A34" r:id="rId34" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/23" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A35" r:id="rId35" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/24" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A36" r:id="rId36" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/25" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A37" r:id="rId37" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/26" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A38" r:id="rId38" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/27" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A39" r:id="rId39" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A40" r:id="rId40" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/29" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A41" r:id="rId41" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/30" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A42" r:id="rId42" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. Januar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/januar/31" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A43" r:id="rId43" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/1" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A44" r:id="rId44" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/2" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A45" r:id="rId45" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/3" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A46" r:id="rId46" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/4" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A47" r:id="rId47" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/5" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A48" r:id="rId48" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/6" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A49" r:id="rId49" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/7" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A50" r:id="rId50" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/8" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A51" r:id="rId51" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/9" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A52" r:id="rId52" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/10" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A53" r:id="rId53" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/11" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A54" r:id="rId54" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/12" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A55" r:id="rId55" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/13" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A56" r:id="rId56" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/14" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A57" r:id="rId57" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A58" r:id="rId58" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/16" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A59" r:id="rId59" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/17" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A60" r:id="rId60" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/18" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A61" r:id="rId61" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A62" r:id="rId62" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/20" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A63" r:id="rId63" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/21" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A64" r:id="rId64" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/22" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A65" r:id="rId65" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/23" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A66" r:id="rId66" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/24" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A67" r:id="rId67" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/25" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A68" r:id="rId68" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/26" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A69" r:id="rId69" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/27" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A70" r:id="rId70" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. Februar 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/februar/28" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A71" r:id="rId71" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/1" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A72" r:id="rId72" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/2" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A73" r:id="rId73" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/3" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A74" r:id="rId74" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/4" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A75" r:id="rId75" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/5" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A76" r:id="rId76" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/6" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A77" r:id="rId77" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/7" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A78" r:id="rId78" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/8" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A79" r:id="rId79" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/9" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A80" r:id="rId80" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/10" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A81" r:id="rId81" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/11" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A82" r:id="rId82" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/12" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A83" r:id="rId83" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/13" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A84" r:id="rId84" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 14. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/14" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A85" r:id="rId85" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 15. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/15" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A86" r:id="rId86" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 16. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/16" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A87" r:id="rId87" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 17. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/17" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A88" r:id="rId88" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 18. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/18" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A89" r:id="rId89" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 19. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/19" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A90" r:id="rId90" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 20. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/20" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A91" r:id="rId91" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 21. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/21" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A92" r:id="rId92" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 22. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/22" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A93" r:id="rId93" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 23. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/23" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A94" r:id="rId94" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 24. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/24" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A95" r:id="rId95" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 25. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/25" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A96" r:id="rId96" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 26. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/26" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A97" r:id="rId97" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 27. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/27" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A98" r:id="rId98" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 28. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/28" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A99" r:id="rId99" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 29. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/29" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A100" r:id="rId100" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 30. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/30" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A101" r:id="rId101" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 31. März 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/marz/31" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A102" r:id="rId102" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 1. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/1" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A103" r:id="rId103" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 2. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/2" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A104" r:id="rId104" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 3. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/3" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A105" r:id="rId105" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 4. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/4" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A106" r:id="rId106" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 5. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/5" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A107" r:id="rId107" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 6. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/6" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A108" r:id="rId108" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 7. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/7" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A109" r:id="rId109" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 8. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/8" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A110" r:id="rId110" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 9. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/9" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A111" r:id="rId111" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 10. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/10" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A112" r:id="rId112" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 11. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/11" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A113" r:id="rId113" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 12. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/12" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A114" r:id="rId114" tooltip="Sonnenaufgang und Sonnenuntergang Zeiten Rottach Egern, 13. April 2019" display="https://www.sunrise-and-sunset.com/de/sun/deutschland/rottach-egern/2019/april/13" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId115"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Daten/sunhours.xlsx
+++ b/Daten/sunhours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elekt\Documents\R\LVS\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leasc\OneDrive\Dokumente\R\LVS\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9814FDEC-B0D4-45C2-8E42-151A7928FB20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9814FDEC-B0D4-45C2-8E42-151A7928FB20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1456EAA8-343B-488B-97E3-08697EFE108E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,355 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
-  <si>
-    <t>21 Dezember 2018, Freitag</t>
-  </si>
-  <si>
-    <t>22 Dezember 2018, Samstag</t>
-  </si>
-  <si>
-    <t>23 Dezember 2018, Sonntag</t>
-  </si>
-  <si>
-    <t>24 Dezember 2018, Montag</t>
-  </si>
-  <si>
-    <t>25 Dezember 2018, Dienstag</t>
-  </si>
-  <si>
-    <t>26 Dezember 2018, Mittwoch</t>
-  </si>
-  <si>
-    <t>27 Dezember 2018, Donnerstag</t>
-  </si>
-  <si>
-    <t>28 Dezember 2018, Freitag</t>
-  </si>
-  <si>
-    <t>29 Dezember 2018, Samstag</t>
-  </si>
-  <si>
-    <t>30 Dezember 2018, Sonntag</t>
-  </si>
-  <si>
-    <t>31 Dezember 2018, Montag</t>
-  </si>
-  <si>
-    <t>1 Januar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>2 Januar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>3 Januar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>4 Januar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>5 Januar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>6 Januar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>7 Januar 2019, Montag</t>
-  </si>
-  <si>
-    <t>8 Januar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>9 Januar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>10 Januar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>11 Januar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>12 Januar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>13 Januar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>14 Januar 2019, Montag</t>
-  </si>
-  <si>
-    <t>15 Januar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>16 Januar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>17 Januar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>18 Januar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>19 Januar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>20 Januar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>21 Januar 2019, Montag</t>
-  </si>
-  <si>
-    <t>22 Januar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>23 Januar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>24 Januar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>25 Januar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>26 Januar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>27 Januar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>28 Januar 2019, Montag</t>
-  </si>
-  <si>
-    <t>29 Januar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>30 Januar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>31 Januar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>1 Februar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>2 Februar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>3 Februar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>4 Februar 2019, Montag</t>
-  </si>
-  <si>
-    <t>5 Februar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>6 Februar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>7 Februar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>8 Februar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>9 Februar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>10 Februar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>11 Februar 2019, Montag</t>
-  </si>
-  <si>
-    <t>12 Februar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>13 Februar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>14 Februar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>15 Februar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>16 Februar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>17 Februar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>18 Februar 2019, Montag</t>
-  </si>
-  <si>
-    <t>19 Februar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>20 Februar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>21 Februar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>22 Februar 2019, Freitag</t>
-  </si>
-  <si>
-    <t>23 Februar 2019, Samstag</t>
-  </si>
-  <si>
-    <t>24 Februar 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>25 Februar 2019, Montag</t>
-  </si>
-  <si>
-    <t>26 Februar 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>27 Februar 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>28 Februar 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>1 März 2019, Freitag</t>
-  </si>
-  <si>
-    <t>2 März 2019, Samstag</t>
-  </si>
-  <si>
-    <t>3 März 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>4 März 2019, Montag</t>
-  </si>
-  <si>
-    <t>5 März 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>6 März 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>7 März 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>8 März 2019, Freitag</t>
-  </si>
-  <si>
-    <t>9 März 2019, Samstag</t>
-  </si>
-  <si>
-    <t>10 März 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>11 März 2019, Montag</t>
-  </si>
-  <si>
-    <t>12 März 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>13 März 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>14 März 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>15 März 2019, Freitag</t>
-  </si>
-  <si>
-    <t>16 März 2019, Samstag</t>
-  </si>
-  <si>
-    <t>17 März 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>18 März 2019, Montag</t>
-  </si>
-  <si>
-    <t>19 März 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>20 März 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>21 März 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>22 März 2019, Freitag</t>
-  </si>
-  <si>
-    <t>23 März 2019, Samstag</t>
-  </si>
-  <si>
-    <t>24 März 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>25 März 2019, Montag</t>
-  </si>
-  <si>
-    <t>26 März 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>27 März 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>28 März 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>29 März 2019, Freitag</t>
-  </si>
-  <si>
-    <t>30 März 2019, Samstag</t>
-  </si>
-  <si>
-    <t>31 März 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>1 April 2019, Montag</t>
-  </si>
-  <si>
-    <t>2 April 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>3 April 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>4 April 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>5 April 2019, Freitag</t>
-  </si>
-  <si>
-    <t>6 April 2019, Samstag</t>
-  </si>
-  <si>
-    <t>7 April 2019, Sonntag</t>
-  </si>
-  <si>
-    <t>8 April 2019, Montag</t>
-  </si>
-  <si>
-    <t>9 April 2019, Dienstag</t>
-  </si>
-  <si>
-    <t>10 April 2019, Mittwoch</t>
-  </si>
-  <si>
-    <t>11 April 2019, Donnerstag</t>
-  </si>
-  <si>
-    <t>12 April 2019, Freitag</t>
-  </si>
-  <si>
-    <t>13 April 2019, Samstag</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,14 +40,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -413,7 +62,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -451,17 +100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFE3E3E3"/>
@@ -470,19 +108,6 @@
         <color rgb="FFDDDDDD"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,11 +135,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -528,38 +152,27 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,18 +511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="14"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11">
+        <v>43455</v>
       </c>
       <c r="B1" s="1">
         <v>0.33263888888888887</v>
@@ -921,9 +531,9 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11">
+        <v>43456</v>
       </c>
       <c r="B2" s="2">
         <v>0.33263888888888887</v>
@@ -935,9 +545,9 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11">
+        <v>43457</v>
       </c>
       <c r="B3" s="1">
         <v>0.33333333333333331</v>
@@ -949,9 +559,9 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>3</v>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="11">
+        <v>43458</v>
       </c>
       <c r="B4" s="2">
         <v>0.33333333333333331</v>
@@ -963,9 +573,9 @@
         <v>0.34930555555555554</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11">
+        <v>43459</v>
       </c>
       <c r="B5" s="1">
         <v>0.33333333333333331</v>
@@ -977,9 +587,9 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11">
+        <v>43460</v>
       </c>
       <c r="B6" s="2">
         <v>0.33402777777777781</v>
@@ -991,9 +601,9 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>6</v>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11">
+        <v>43461</v>
       </c>
       <c r="B7" s="1">
         <v>0.33402777777777781</v>
@@ -1005,9 +615,9 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>7</v>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11">
+        <v>43462</v>
       </c>
       <c r="B8" s="2">
         <v>0.33402777777777781</v>
@@ -1019,9 +629,9 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>8</v>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11">
+        <v>43463</v>
       </c>
       <c r="B9" s="1">
         <v>0.33402777777777781</v>
@@ -1033,9 +643,9 @@
         <v>0.35138888888888892</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>9</v>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11">
+        <v>43464</v>
       </c>
       <c r="B10" s="2">
         <v>0.3347222222222222</v>
@@ -1047,9 +657,9 @@
         <v>0.35138888888888892</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11">
+        <v>43465</v>
       </c>
       <c r="B11" s="9">
         <v>0.3347222222222222</v>
@@ -1061,9 +671,9 @@
         <v>0.3520833333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>11</v>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11">
+        <v>43466</v>
       </c>
       <c r="B12" s="3">
         <v>0.3347222222222222</v>
@@ -1075,9 +685,9 @@
         <v>0.3527777777777778</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>12</v>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11">
+        <v>43467</v>
       </c>
       <c r="B13" s="2">
         <v>0.3347222222222222</v>
@@ -1089,9 +699,9 @@
         <v>0.35347222222222219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>13</v>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11">
+        <v>43468</v>
       </c>
       <c r="B14" s="2">
         <v>0.3347222222222222</v>
@@ -1103,9 +713,9 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11">
+        <v>43469</v>
       </c>
       <c r="B15" s="2">
         <v>0.3347222222222222</v>
@@ -1117,9 +727,9 @@
         <v>0.35486111111111113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>15</v>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11">
+        <v>43470</v>
       </c>
       <c r="B16" s="1">
         <v>0.33402777777777781</v>
@@ -1131,9 +741,9 @@
         <v>0.35555555555555557</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>16</v>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11">
+        <v>43471</v>
       </c>
       <c r="B17" s="2">
         <v>0.33402777777777781</v>
@@ -1145,9 +755,9 @@
         <v>0.35694444444444445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>17</v>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11">
+        <v>43472</v>
       </c>
       <c r="B18" s="1">
         <v>0.33402777777777781</v>
@@ -1159,9 +769,9 @@
         <v>0.3576388888888889</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>18</v>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11">
+        <v>43473</v>
       </c>
       <c r="B19" s="2">
         <v>0.33402777777777781</v>
@@ -1173,9 +783,9 @@
         <v>0.35902777777777778</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>19</v>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11">
+        <v>43474</v>
       </c>
       <c r="B20" s="1">
         <v>0.33333333333333331</v>
@@ -1187,9 +797,9 @@
         <v>0.35972222222222222</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>20</v>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="11">
+        <v>43475</v>
       </c>
       <c r="B21" s="2">
         <v>0.33333333333333331</v>
@@ -1201,9 +811,9 @@
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="11">
+        <v>43476</v>
       </c>
       <c r="B22" s="1">
         <v>0.33263888888888887</v>
@@ -1215,9 +825,9 @@
         <v>0.36180555555555555</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>22</v>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="11">
+        <v>43477</v>
       </c>
       <c r="B23" s="2">
         <v>0.33263888888888887</v>
@@ -1229,9 +839,9 @@
         <v>0.36319444444444443</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>23</v>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11">
+        <v>43478</v>
       </c>
       <c r="B24" s="1">
         <v>0.33194444444444443</v>
@@ -1243,9 +853,9 @@
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>24</v>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11">
+        <v>43479</v>
       </c>
       <c r="B25" s="2">
         <v>0.33194444444444443</v>
@@ -1257,9 +867,9 @@
         <v>0.3659722222222222</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>25</v>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11">
+        <v>43480</v>
       </c>
       <c r="B26" s="1">
         <v>0.33124999999999999</v>
@@ -1271,9 +881,9 @@
         <v>0.36736111111111108</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>26</v>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11">
+        <v>43481</v>
       </c>
       <c r="B27" s="2">
         <v>0.33124999999999999</v>
@@ -1285,9 +895,9 @@
         <v>0.36874999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>27</v>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11">
+        <v>43482</v>
       </c>
       <c r="B28" s="1">
         <v>0.33055555555555555</v>
@@ -1299,9 +909,9 @@
         <v>0.37013888888888885</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>28</v>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11">
+        <v>43483</v>
       </c>
       <c r="B29" s="2">
         <v>0.3298611111111111</v>
@@ -1313,9 +923,9 @@
         <v>0.37152777777777773</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>29</v>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11">
+        <v>43484</v>
       </c>
       <c r="B30" s="1">
         <v>0.32916666666666666</v>
@@ -1327,9 +937,9 @@
         <v>0.37291666666666662</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>30</v>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11">
+        <v>43485</v>
       </c>
       <c r="B31" s="2">
         <v>0.32847222222222222</v>
@@ -1341,9 +951,9 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11">
+        <v>43486</v>
       </c>
       <c r="B32" s="1">
         <v>0.32847222222222222</v>
@@ -1355,9 +965,9 @@
         <v>0.37638888888888888</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>32</v>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="11">
+        <v>43487</v>
       </c>
       <c r="B33" s="2">
         <v>0.32777777777777778</v>
@@ -1369,9 +979,9 @@
         <v>0.37777777777777777</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>33</v>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="11">
+        <v>43488</v>
       </c>
       <c r="B34" s="1">
         <v>0.32708333333333334</v>
@@ -1383,9 +993,9 @@
         <v>0.37986111111111115</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>34</v>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="11">
+        <v>43489</v>
       </c>
       <c r="B35" s="2">
         <v>0.3263888888888889</v>
@@ -1397,9 +1007,9 @@
         <v>0.38125000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>35</v>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11">
+        <v>43490</v>
       </c>
       <c r="B36" s="1">
         <v>0.32569444444444445</v>
@@ -1411,9 +1021,9 @@
         <v>0.3833333333333333</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>36</v>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="11">
+        <v>43491</v>
       </c>
       <c r="B37" s="2">
         <v>0.32500000000000001</v>
@@ -1425,9 +1035,9 @@
         <v>0.38472222222222219</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>37</v>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="11">
+        <v>43492</v>
       </c>
       <c r="B38" s="1">
         <v>0.32430555555555557</v>
@@ -1439,9 +1049,9 @@
         <v>0.38680555555555557</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>38</v>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="11">
+        <v>43493</v>
       </c>
       <c r="B39" s="2">
         <v>0.32291666666666669</v>
@@ -1453,9 +1063,9 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>39</v>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="11">
+        <v>43494</v>
       </c>
       <c r="B40" s="1">
         <v>0.32222222222222224</v>
@@ -1467,9 +1077,9 @@
         <v>0.39027777777777778</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>40</v>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="11">
+        <v>43495</v>
       </c>
       <c r="B41" s="2">
         <v>0.3215277777777778</v>
@@ -1481,9 +1091,9 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>41</v>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="11">
+        <v>43496</v>
       </c>
       <c r="B42" s="9">
         <v>0.32083333333333336</v>
@@ -1495,9 +1105,9 @@
         <v>0.39444444444444443</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>42</v>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11">
+        <v>43497</v>
       </c>
       <c r="B43" s="3">
         <v>0.32013888888888892</v>
@@ -1509,9 +1119,9 @@
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>43</v>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="11">
+        <v>43498</v>
       </c>
       <c r="B44" s="2">
         <v>0.31875000000000003</v>
@@ -1523,9 +1133,9 @@
         <v>0.39861111111111108</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>44</v>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11">
+        <v>43499</v>
       </c>
       <c r="B45" s="1">
         <v>0.31805555555555554</v>
@@ -1537,9 +1147,9 @@
         <v>0.40069444444444446</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>45</v>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
+        <v>43500</v>
       </c>
       <c r="B46" s="2">
         <v>0.31736111111111115</v>
@@ -1551,9 +1161,9 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>46</v>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11">
+        <v>43501</v>
       </c>
       <c r="B47" s="1">
         <v>0.31597222222222221</v>
@@ -1565,9 +1175,9 @@
         <v>0.40486111111111112</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>47</v>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="11">
+        <v>43502</v>
       </c>
       <c r="B48" s="2">
         <v>0.31527777777777777</v>
@@ -1579,9 +1189,9 @@
         <v>0.4069444444444445</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>48</v>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="11">
+        <v>43503</v>
       </c>
       <c r="B49" s="1">
         <v>0.31388888888888888</v>
@@ -1593,9 +1203,9 @@
         <v>0.40902777777777777</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>49</v>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
+        <v>43504</v>
       </c>
       <c r="B50" s="2">
         <v>0.31319444444444444</v>
@@ -1607,9 +1217,9 @@
         <v>0.41111111111111115</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>50</v>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="11">
+        <v>43505</v>
       </c>
       <c r="B51" s="1">
         <v>0.31180555555555556</v>
@@ -1621,9 +1231,9 @@
         <v>0.41319444444444442</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>51</v>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="11">
+        <v>43506</v>
       </c>
       <c r="B52" s="2">
         <v>0.31111111111111112</v>
@@ -1635,9 +1245,9 @@
         <v>0.4152777777777778</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>52</v>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="11">
+        <v>43507</v>
       </c>
       <c r="B53" s="1">
         <v>0.30972222222222223</v>
@@ -1649,9 +1259,9 @@
         <v>0.41736111111111113</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>53</v>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11">
+        <v>43508</v>
       </c>
       <c r="B54" s="2">
         <v>0.30902777777777779</v>
@@ -1663,9 +1273,9 @@
         <v>0.41944444444444445</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>54</v>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="11">
+        <v>43509</v>
       </c>
       <c r="B55" s="1">
         <v>0.30763888888888891</v>
@@ -1677,9 +1287,9 @@
         <v>0.42152777777777778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>55</v>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="11">
+        <v>43510</v>
       </c>
       <c r="B56" s="2">
         <v>0.30624999999999997</v>
@@ -1691,9 +1301,9 @@
         <v>0.4236111111111111</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>56</v>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="11">
+        <v>43511</v>
       </c>
       <c r="B57" s="1">
         <v>0.30555555555555552</v>
@@ -1705,9 +1315,9 @@
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>57</v>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="11">
+        <v>43512</v>
       </c>
       <c r="B58" s="2">
         <v>0.30416666666666664</v>
@@ -1719,9 +1329,9 @@
         <v>0.4284722222222222</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>58</v>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="11">
+        <v>43513</v>
       </c>
       <c r="B59" s="1">
         <v>0.30277777777777776</v>
@@ -1733,9 +1343,9 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>59</v>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="11">
+        <v>43514</v>
       </c>
       <c r="B60" s="2">
         <v>0.30208333333333331</v>
@@ -1747,9 +1357,9 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>60</v>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="11">
+        <v>43515</v>
       </c>
       <c r="B61" s="1">
         <v>0.30069444444444443</v>
@@ -1761,9 +1371,9 @@
         <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>61</v>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="11">
+        <v>43516</v>
       </c>
       <c r="B62" s="2">
         <v>0.29930555555555555</v>
@@ -1775,9 +1385,9 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>62</v>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="11">
+        <v>43517</v>
       </c>
       <c r="B63" s="1">
         <v>0.29791666666666666</v>
@@ -1789,9 +1399,9 @@
         <v>0.43958333333333338</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>63</v>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="11">
+        <v>43518</v>
       </c>
       <c r="B64" s="2">
         <v>0.29722222222222222</v>
@@ -1803,9 +1413,9 @@
         <v>0.44236111111111115</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>64</v>
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="11">
+        <v>43519</v>
       </c>
       <c r="B65" s="1">
         <v>0.29583333333333334</v>
@@ -1817,9 +1427,9 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>65</v>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="11">
+        <v>43520</v>
       </c>
       <c r="B66" s="2">
         <v>0.29444444444444445</v>
@@ -1831,9 +1441,9 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>66</v>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="11">
+        <v>43521</v>
       </c>
       <c r="B67" s="1">
         <v>0.29305555555555557</v>
@@ -1845,9 +1455,9 @@
         <v>0.44930555555555557</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>67</v>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="11">
+        <v>43522</v>
       </c>
       <c r="B68" s="2">
         <v>0.29166666666666669</v>
@@ -1859,9 +1469,9 @@
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>68</v>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="11">
+        <v>43523</v>
       </c>
       <c r="B69" s="1">
         <v>0.29097222222222224</v>
@@ -1873,9 +1483,9 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>69</v>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="11">
+        <v>43524</v>
       </c>
       <c r="B70" s="7">
         <v>0.28958333333333336</v>
@@ -1887,9 +1497,9 @@
         <v>0.45624999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>70</v>
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="11">
+        <v>43525</v>
       </c>
       <c r="B71" s="3">
         <v>0.28819444444444448</v>
@@ -1901,9 +1511,9 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>71</v>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="11">
+        <v>43526</v>
       </c>
       <c r="B72" s="2">
         <v>0.28680555555555554</v>
@@ -1915,9 +1525,9 @@
         <v>0.46111111111111108</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>72</v>
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="11">
+        <v>43527</v>
       </c>
       <c r="B73" s="1">
         <v>0.28541666666666665</v>
@@ -1929,9 +1539,9 @@
         <v>0.46319444444444446</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>73</v>
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="11">
+        <v>43528</v>
       </c>
       <c r="B74" s="2">
         <v>0.28402777777777777</v>
@@ -1943,9 +1553,9 @@
         <v>0.46597222222222223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>74</v>
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="11">
+        <v>43529</v>
       </c>
       <c r="B75" s="1">
         <v>0.28263888888888888</v>
@@ -1957,9 +1567,9 @@
         <v>0.4680555555555555</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>75</v>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="11">
+        <v>43530</v>
       </c>
       <c r="B76" s="2">
         <v>0.28125</v>
@@ -1971,9 +1581,9 @@
         <v>0.47013888888888888</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>76</v>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="11">
+        <v>43531</v>
       </c>
       <c r="B77" s="1">
         <v>0.27986111111111112</v>
@@ -1985,9 +1595,9 @@
         <v>0.47291666666666665</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>77</v>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="11">
+        <v>43532</v>
       </c>
       <c r="B78" s="2">
         <v>0.27847222222222223</v>
@@ -1999,9 +1609,9 @@
         <v>0.47500000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>78</v>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="11">
+        <v>43533</v>
       </c>
       <c r="B79" s="1">
         <v>0.27708333333333335</v>
@@ -2013,9 +1623,9 @@
         <v>0.4777777777777778</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>79</v>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="11">
+        <v>43534</v>
       </c>
       <c r="B80" s="2">
         <v>0.27569444444444446</v>
@@ -2027,9 +1637,9 @@
         <v>0.47986111111111113</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>80</v>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="11">
+        <v>43535</v>
       </c>
       <c r="B81" s="1">
         <v>0.27430555555555552</v>
@@ -2041,9 +1651,9 @@
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>81</v>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="11">
+        <v>43536</v>
       </c>
       <c r="B82" s="2">
         <v>0.27291666666666664</v>
@@ -2055,9 +1665,9 @@
         <v>0.48472222222222222</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>82</v>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="11">
+        <v>43537</v>
       </c>
       <c r="B83" s="1">
         <v>0.27152777777777776</v>
@@ -2069,9 +1679,9 @@
         <v>0.48749999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>83</v>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="11">
+        <v>43538</v>
       </c>
       <c r="B84" s="2">
         <v>0.27013888888888887</v>
@@ -2083,9 +1693,9 @@
         <v>0.48958333333333331</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>84</v>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="11">
+        <v>43539</v>
       </c>
       <c r="B85" s="1">
         <v>0.26874999999999999</v>
@@ -2097,9 +1707,9 @@
         <v>0.4916666666666667</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>85</v>
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="11">
+        <v>43540</v>
       </c>
       <c r="B86" s="2">
         <v>0.2673611111111111</v>
@@ -2111,9 +1721,9 @@
         <v>0.49444444444444446</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>86</v>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="11">
+        <v>43541</v>
       </c>
       <c r="B87" s="1">
         <v>0.26597222222222222</v>
@@ -2125,9 +1735,9 @@
         <v>0.49652777777777773</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>87</v>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="11">
+        <v>43542</v>
       </c>
       <c r="B88" s="2">
         <v>0.26458333333333334</v>
@@ -2139,9 +1749,9 @@
         <v>0.4993055555555555</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>88</v>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="11">
+        <v>43543</v>
       </c>
       <c r="B89" s="1">
         <v>0.26319444444444445</v>
@@ -2153,9 +1763,9 @@
         <v>0.50138888888888888</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>89</v>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="11">
+        <v>43544</v>
       </c>
       <c r="B90" s="2">
         <v>0.26180555555555557</v>
@@ -2167,9 +1777,9 @@
         <v>0.50416666666666665</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>90</v>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="11">
+        <v>43545</v>
       </c>
       <c r="B91" s="1">
         <v>0.26041666666666669</v>
@@ -2181,9 +1791,9 @@
         <v>0.50624999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>91</v>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="11">
+        <v>43546</v>
       </c>
       <c r="B92" s="2">
         <v>0.2590277777777778</v>
@@ -2195,9 +1805,9 @@
         <v>0.50902777777777775</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>92</v>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="11">
+        <v>43547</v>
       </c>
       <c r="B93" s="1">
         <v>0.25763888888888892</v>
@@ -2209,9 +1819,9 @@
         <v>0.51111111111111118</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
-        <v>93</v>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="11">
+        <v>43548</v>
       </c>
       <c r="B94" s="2">
         <v>0.25625000000000003</v>
@@ -2223,9 +1833,9 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>94</v>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="11">
+        <v>43549</v>
       </c>
       <c r="B95" s="1">
         <v>0.25486111111111109</v>
@@ -2237,9 +1847,9 @@
         <v>0.51597222222222217</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>95</v>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="11">
+        <v>43550</v>
       </c>
       <c r="B96" s="2">
         <v>0.25347222222222221</v>
@@ -2251,9 +1861,9 @@
         <v>0.51874999999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>96</v>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="11">
+        <v>43551</v>
       </c>
       <c r="B97" s="1">
         <v>0.25208333333333333</v>
@@ -2265,9 +1875,9 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>97</v>
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="11">
+        <v>43552</v>
       </c>
       <c r="B98" s="2">
         <v>0.25069444444444444</v>
@@ -2279,9 +1889,9 @@
         <v>0.5229166666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>98</v>
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="11">
+        <v>43553</v>
       </c>
       <c r="B99" s="1">
         <v>0.24930555555555556</v>
@@ -2293,9 +1903,9 @@
         <v>0.52569444444444446</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>99</v>
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="11">
+        <v>43554</v>
       </c>
       <c r="B100" s="2">
         <v>0.24791666666666667</v>
@@ -2307,9 +1917,9 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>100</v>
+    <row r="101" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="11">
+        <v>43555</v>
       </c>
       <c r="B101" s="9">
         <v>0.28819444444444448</v>
@@ -2321,9 +1931,9 @@
         <v>0.53055555555555556</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
-        <v>101</v>
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="11">
+        <v>43556</v>
       </c>
       <c r="B102" s="3">
         <v>0.28680555555555554</v>
@@ -2335,9 +1945,9 @@
         <v>0.53263888888888888</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>102</v>
+    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="11">
+        <v>43557</v>
       </c>
       <c r="B103" s="2">
         <v>0.28541666666666665</v>
@@ -2349,9 +1959,9 @@
         <v>0.53541666666666665</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>103</v>
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="11">
+        <v>43558</v>
       </c>
       <c r="B104" s="1">
         <v>0.28402777777777777</v>
@@ -2363,9 +1973,9 @@
         <v>0.53749999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>104</v>
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="11">
+        <v>43559</v>
       </c>
       <c r="B105" s="2">
         <v>0.28263888888888888</v>
@@ -2377,9 +1987,9 @@
         <v>0.5395833333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>105</v>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="11">
+        <v>43560</v>
       </c>
       <c r="B106" s="1">
         <v>0.28125</v>
@@ -2391,9 +2001,9 @@
         <v>0.54236111111111118</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>106</v>
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="11">
+        <v>43561</v>
       </c>
       <c r="B107" s="2">
         <v>0.27986111111111112</v>
@@ -2405,9 +2015,9 @@
         <v>0.5444444444444444</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>107</v>
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="11">
+        <v>43562</v>
       </c>
       <c r="B108" s="1">
         <v>0.27847222222222223</v>
@@ -2419,9 +2029,9 @@
         <v>0.54722222222222217</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>108</v>
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="11">
+        <v>43563</v>
       </c>
       <c r="B109" s="2">
         <v>0.27708333333333335</v>
@@ -2433,9 +2043,9 @@
         <v>0.5493055555555556</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>109</v>
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="11">
+        <v>43564</v>
       </c>
       <c r="B110" s="1">
         <v>0.27569444444444446</v>
@@ -2447,9 +2057,9 @@
         <v>0.55138888888888882</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
-        <v>110</v>
+    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="11">
+        <v>43565</v>
       </c>
       <c r="B111" s="2">
         <v>0.27430555555555552</v>
@@ -2461,9 +2071,9 @@
         <v>0.5541666666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>111</v>
+    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="11">
+        <v>43566</v>
       </c>
       <c r="B112" s="1">
         <v>0.27291666666666664</v>
@@ -2475,9 +2085,9 @@
         <v>0.55625000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>112</v>
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="11">
+        <v>43567</v>
       </c>
       <c r="B113" s="2">
         <v>0.27152777777777776</v>
@@ -2489,9 +2099,9 @@
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>113</v>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="11">
+        <v>43568</v>
       </c>
       <c r="B114" s="1">
         <v>0.27013888888888887</v>
@@ -2503,105 +2113,88 @@
         <v>0.56111111111111112</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
+    <row r="134" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="135" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11"/>
+    <row r="136" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
+    <row r="137" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11"/>
+    <row r="138" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
+    <row r="139" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="11"/>
+    <row r="140" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
+    <row r="141" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="11"/>
+    <row r="142" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
+    <row r="143" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
+    <row r="144" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="12"/>
+    <row r="145" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="11"/>
+    <row r="146" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="12"/>
+    <row r="147" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
+    <row r="148" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="12"/>
+    <row r="149" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
+    <row r="150" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
+    <row r="151" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
@@ -2618,7 +2211,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2630,7 +2223,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
